--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BDF/20/seed1/result_data_KNN.xlsx
@@ -491,7 +491,7 @@
         <v>-6.85</v>
       </c>
       <c r="E3" t="n">
-        <v>12.948</v>
+        <v>13.115</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +499,16 @@
         <v>-22.38</v>
       </c>
       <c r="B4" t="n">
-        <v>4.786</v>
+        <v>6.302999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-11.3</v>
       </c>
       <c r="D4" t="n">
-        <v>-8.276</v>
+        <v>-8.099</v>
       </c>
       <c r="E4" t="n">
-        <v>13.582</v>
+        <v>12.425</v>
       </c>
     </row>
     <row r="5">
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.714</v>
+        <v>-8.581999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -533,13 +533,13 @@
         <v>-20.35</v>
       </c>
       <c r="B6" t="n">
-        <v>7.747999999999999</v>
+        <v>6.727999999999999</v>
       </c>
       <c r="C6" t="n">
         <v>-12.89</v>
       </c>
       <c r="D6" t="n">
-        <v>-8.756</v>
+        <v>-8.484999999999999</v>
       </c>
       <c r="E6" t="n">
         <v>14.65</v>
@@ -550,7 +550,7 @@
         <v>-21.21</v>
       </c>
       <c r="B7" t="n">
-        <v>6.254</v>
+        <v>6.534000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-10.59</v>
@@ -567,13 +567,13 @@
         <v>-21.48</v>
       </c>
       <c r="B8" t="n">
-        <v>5.292</v>
+        <v>5.726</v>
       </c>
       <c r="C8" t="n">
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-7.94</v>
+        <v>-8.282999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>12.94</v>
@@ -593,7 +593,7 @@
         <v>-9.9</v>
       </c>
       <c r="E9" t="n">
-        <v>14.314</v>
+        <v>13.022</v>
       </c>
     </row>
     <row r="10">
@@ -627,7 +627,7 @@
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>12.628</v>
+        <v>12.774</v>
       </c>
     </row>
     <row r="12">
@@ -678,7 +678,7 @@
         <v>-7.97</v>
       </c>
       <c r="E14" t="n">
-        <v>13.948</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="15">
@@ -703,13 +703,13 @@
         <v>-20.57</v>
       </c>
       <c r="B16" t="n">
-        <v>4.786</v>
+        <v>6.534000000000001</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.868</v>
+        <v>-8.329000000000001</v>
       </c>
       <c r="E16" t="n">
         <v>13.16</v>
@@ -746,7 +746,7 @@
         <v>-8.869999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>12.478</v>
+        <v>12.596</v>
       </c>
     </row>
     <row r="19">
@@ -771,7 +771,7 @@
         <v>-22.69</v>
       </c>
       <c r="B20" t="n">
-        <v>5.353999999999999</v>
+        <v>5.776</v>
       </c>
       <c r="C20" t="n">
         <v>-14.65</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.337999999999999</v>
+        <v>6.218999999999999</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.784000000000001</v>
+        <v>-8.134</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -865,7 +865,7 @@
         <v>-7.71</v>
       </c>
       <c r="E25" t="n">
-        <v>12.806</v>
+        <v>12.791</v>
       </c>
     </row>
   </sheetData>
